--- a/data/webinar_export.xlsx
+++ b/data/webinar_export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Mentors</t>
   </si>
@@ -38,6 +38,51 @@
   </si>
   <si>
     <t>Telegram ID</t>
+  </si>
+  <si>
+    <t>Begoyim Bekmirzaeva</t>
+  </si>
+  <si>
+    <t>KOREA</t>
+  </si>
+  <si>
+    <t>23.04.2025</t>
+  </si>
+  <si>
+    <t>19:10</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>+998998359015</t>
+  </si>
+  <si>
+    <t>Bachelor</t>
+  </si>
+  <si>
+    <t>@status_developer</t>
+  </si>
+  <si>
+    <t>Shohjahon Jonmirzayev</t>
+  </si>
+  <si>
+    <t>NORDIC</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>Gulbanu Turganbaeva</t>
+  </si>
+  <si>
+    <t>TURKEY</t>
+  </si>
+  <si>
+    <t>17:20</t>
+  </si>
+  <si>
+    <t>Last update: 23.04.2025 17:45</t>
   </si>
 </sst>
 </file>
@@ -95,10 +140,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -405,20 +453,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -447,6 +495,96 @@
         <v>7</v>
       </c>
     </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
